--- a/simpleBlog/sbdb.xlsx
+++ b/simpleBlog/sbdb.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4704,7 +4703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
